--- a/sources/Nanai_data.xlsx
+++ b/sources/Nanai_data.xlsx
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2713,15 +2713,15 @@
       <c r="L2" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>540</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2801,15 +2801,15 @@
       <c r="L4" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>544</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -2893,7 +2893,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2930,15 +2930,15 @@
       <c r="L7" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>554</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="5" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3094,15 +3094,15 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>559</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -3145,7 +3145,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3229,7 +3229,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3272,7 +3272,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3313,7 +3313,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3348,15 +3348,15 @@
       <c r="L17" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>570</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -3481,7 +3481,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3563,7 +3563,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3598,15 +3598,15 @@
       <c r="L23" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>577</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3649,7 +3649,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3897,7 +3897,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -3934,15 +3934,15 @@
       <c r="L31" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>586</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -4026,7 +4026,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4110,7 +4110,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -4145,15 +4145,15 @@
       <c r="L36" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4272,15 +4272,15 @@
       <c r="L39" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>598</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4438,15 +4438,15 @@
       <c r="L43" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>603</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4481,15 +4481,15 @@
       <c r="L44" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4563,15 +4563,15 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5" t="s">
-        <v>608</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4690,15 +4690,15 @@
       <c r="L49" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M49" s="6" t="s">
-        <v>611</v>
-      </c>
+      <c r="M49" s="6"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="6" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4817,15 +4817,15 @@
       <c r="L52" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>615</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -4946,15 +4946,15 @@
       <c r="L55" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>619</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -4989,15 +4989,15 @@
       <c r="L56" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>621</v>
-      </c>
+      <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
+      <c r="S56" s="5" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -5034,15 +5034,15 @@
       <c r="L57" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>623</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5079,15 +5079,15 @@
       <c r="L58" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>625</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -5163,15 +5163,15 @@
       <c r="L60" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>628</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5208,15 +5208,15 @@
       <c r="L61" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>632</v>
-      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="5" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -5259,7 +5259,7 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5296,15 +5296,15 @@
       <c r="L63" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>635</v>
-      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -5382,15 +5382,15 @@
       <c r="L65" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>638</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5427,15 +5427,15 @@
       <c r="L66" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M66" s="12" t="s">
-        <v>640</v>
-      </c>
+      <c r="M66" s="12"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="12" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5509,15 +5509,15 @@
       <c r="J68" s="6"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="6" t="s">
-        <v>642</v>
-      </c>
+      <c r="M68" s="6"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="6" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5759,15 +5759,15 @@
       <c r="L74" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>649</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -5929,15 +5929,15 @@
       <c r="L78" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>655</v>
-      </c>
+      <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
@@ -6013,15 +6013,15 @@
       <c r="L80" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -6187,15 +6187,15 @@
       <c r="L84" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M84" s="6" t="s">
-        <v>663</v>
-      </c>
+      <c r="M84" s="6"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="6" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6273,15 +6273,15 @@
       <c r="L86" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M86" s="5" t="s">
-        <v>666</v>
-      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -6404,7 +6404,7 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="6"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6437,15 +6437,15 @@
       <c r="J90" s="6"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="6" t="s">
-        <v>670</v>
-      </c>
+      <c r="M90" s="6"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="6" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6488,7 +6488,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="10"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -6564,15 +6564,15 @@
       <c r="L93" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M93" s="6" t="s">
-        <v>673</v>
-      </c>
+      <c r="M93" s="6"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="6" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -6650,15 +6650,15 @@
       <c r="L95" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>676</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -6906,15 +6906,15 @@
       <c r="L101" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7074,15 +7074,15 @@
       <c r="L105" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M105" s="8" t="s">
-        <v>688</v>
-      </c>
+      <c r="M105" s="8"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="8" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -7283,15 +7283,15 @@
       <c r="L110" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>694</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7324,15 +7324,15 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="5" t="s">
-        <v>695</v>
-      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7369,15 +7369,15 @@
       <c r="L112" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M112" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7420,7 +7420,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="6"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7461,7 +7461,7 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7502,7 +7502,7 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7543,7 +7543,7 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7580,15 +7580,15 @@
       <c r="L117" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M117" s="6" t="s">
-        <v>703</v>
-      </c>
+      <c r="M117" s="6"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="6" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -7625,15 +7625,15 @@
       <c r="L118" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -7668,15 +7668,15 @@
       <c r="L119" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -7750,15 +7750,15 @@
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="5" t="s">
-        <v>708</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -7793,15 +7793,15 @@
       <c r="L122" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M122" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="5" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -7838,15 +7838,15 @@
       <c r="L123" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -7922,15 +7922,15 @@
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="5" t="s">
-        <v>714</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -7967,15 +7967,15 @@
       <c r="L126" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>716</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8010,15 +8010,15 @@
       <c r="L127" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M127" s="5" t="s">
-        <v>718</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -8051,15 +8051,15 @@
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="5" t="s">
-        <v>719</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8096,15 +8096,15 @@
       <c r="L129" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M129" s="5" t="s">
-        <v>720</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8137,15 +8137,15 @@
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="5" t="s">
-        <v>721</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -8182,15 +8182,15 @@
       <c r="L131" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>723</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>723</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>

--- a/sources/Nanai_data.xlsx
+++ b/sources/Nanai_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="725">
   <si>
     <t>language_no</t>
   </si>
@@ -1671,12 +1671,6 @@
     <t>DAT</t>
   </si>
   <si>
-    <t>NOM_noAGR</t>
-  </si>
-  <si>
-    <t>DAT_NOM_noAGR</t>
-  </si>
-  <si>
     <t>Y-mat bi-</t>
   </si>
   <si>
@@ -1812,12 +1806,6 @@
     <t>bi-</t>
   </si>
   <si>
-    <t>NOM_AGR</t>
-  </si>
-  <si>
-    <t>DAT_NOM_AGR</t>
-  </si>
-  <si>
     <t>Это глагол 'быть'</t>
   </si>
   <si>
@@ -1914,9 +1902,6 @@
     <t>elisi-</t>
   </si>
   <si>
-    <t xml:space="preserve">kəndəli </t>
-  </si>
-  <si>
     <t>NOM_kendeli</t>
   </si>
   <si>
@@ -2073,9 +2058,6 @@
     <t>sali-</t>
   </si>
   <si>
-    <t>NOM_NOM</t>
-  </si>
-  <si>
     <t>Особая конструкция, не совпадающая с переходной. Согласование тут есть. Конкурирует с неглагольной конструкцией (цена чашки сто долларов)</t>
   </si>
   <si>
@@ -2194,6 +2176,27 @@
   </si>
   <si>
     <t>Еще иногда бывает TR, но он иногда под сомнением</t>
+  </si>
+  <si>
+    <t>OBL</t>
+  </si>
+  <si>
+    <t>DAT_NOM(NO.AGR)</t>
+  </si>
+  <si>
+    <t>NOM(NO.AGR)</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kendeli </t>
+  </si>
+  <si>
+    <t>NOM_NOM(NO.AGR)</t>
   </si>
 </sst>
 </file>
@@ -2591,9 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2709,7 +2710,9 @@
       <c r="J2" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L2" s="5" t="s">
         <v>539</v>
       </c>
@@ -2754,7 +2757,9 @@
       <c r="J3" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>542</v>
       </c>
@@ -2797,7 +2802,9 @@
       <c r="J4" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>542</v>
       </c>
@@ -2837,10 +2844,14 @@
         <v>545</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>546</v>
       </c>
@@ -2881,11 +2892,13 @@
         <v>548</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="K6" s="5"/>
+        <v>720</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>722</v>
+      </c>
       <c r="L6" s="5" t="s">
-        <v>550</v>
+        <v>719</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="5"/>
@@ -2918,17 +2931,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2937,7 +2952,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -2963,13 +2978,17 @@
         <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L8" s="5" t="s">
         <v>546</v>
       </c>
@@ -3004,13 +3023,17 @@
         <v>50</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>546</v>
       </c>
@@ -3045,13 +3068,17 @@
         <v>54</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L10" s="5" t="s">
         <v>546</v>
       </c>
@@ -3086,13 +3113,17 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -3101,7 +3132,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -3127,7 +3158,7 @@
         <v>62</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>538</v>
@@ -3135,7 +3166,9 @@
       <c r="J12" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L12" s="5" t="s">
         <v>542</v>
       </c>
@@ -3170,17 +3203,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3213,13 +3248,17 @@
         <v>70</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L14" s="5" t="s">
         <v>546</v>
       </c>
@@ -3254,17 +3293,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
-        <v>567</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3297,13 +3338,17 @@
         <v>78</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L16" s="5" t="s">
         <v>546</v>
       </c>
@@ -3338,13 +3383,17 @@
         <v>82</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L17" s="5" t="s">
         <v>546</v>
       </c>
@@ -3355,7 +3404,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -3381,17 +3430,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K18" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L18" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3424,13 +3475,17 @@
         <v>90</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L19" s="5" t="s">
         <v>546</v>
       </c>
@@ -3465,13 +3520,17 @@
         <v>94</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L20" s="5" t="s">
         <v>546</v>
       </c>
@@ -3506,13 +3565,17 @@
         <v>98</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L21" s="5" t="s">
         <v>546</v>
       </c>
@@ -3547,13 +3610,17 @@
         <v>102</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L22" s="5" t="s">
         <v>546</v>
       </c>
@@ -3588,13 +3655,17 @@
         <v>106</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L23" s="5" t="s">
         <v>546</v>
       </c>
@@ -3605,7 +3676,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -3631,7 +3702,7 @@
         <v>110</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>538</v>
@@ -3639,7 +3710,9 @@
       <c r="J24" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L24" s="5" t="s">
         <v>542</v>
       </c>
@@ -3674,7 +3747,7 @@
         <v>114</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>538</v>
@@ -3682,7 +3755,9 @@
       <c r="J25" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L25" s="5" t="s">
         <v>542</v>
       </c>
@@ -3717,13 +3792,17 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L26" s="5" t="s">
         <v>546</v>
       </c>
@@ -3758,13 +3837,17 @@
         <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L27" s="5" t="s">
         <v>546</v>
       </c>
@@ -3799,13 +3882,17 @@
         <v>126</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L28" s="5" t="s">
         <v>546</v>
       </c>
@@ -3840,13 +3927,17 @@
         <v>130</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L29" s="5" t="s">
         <v>546</v>
       </c>
@@ -3881,13 +3972,17 @@
         <v>134</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L30" s="5" t="s">
         <v>546</v>
       </c>
@@ -3922,17 +4017,19 @@
         <v>138</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="K31" s="5"/>
+        <v>564</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L31" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3941,7 +4038,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -3967,13 +4064,17 @@
         <v>142</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L32" s="5" t="s">
         <v>546</v>
       </c>
@@ -4008,7 +4109,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>538</v>
@@ -4016,7 +4117,9 @@
       <c r="J33" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L33" s="5" t="s">
         <v>542</v>
       </c>
@@ -4051,13 +4154,17 @@
         <v>150</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L34" s="5" t="s">
         <v>546</v>
       </c>
@@ -4092,7 +4199,7 @@
         <v>154</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>538</v>
@@ -4100,7 +4207,9 @@
       <c r="J35" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L35" s="5" t="s">
         <v>542</v>
       </c>
@@ -4135,13 +4244,17 @@
         <v>158</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L36" s="5" t="s">
         <v>546</v>
       </c>
@@ -4152,7 +4265,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
@@ -4178,13 +4291,17 @@
         <v>162</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L37" s="5" t="s">
         <v>546</v>
       </c>
@@ -4219,13 +4336,17 @@
         <v>166</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L38" s="5" t="s">
         <v>546</v>
       </c>
@@ -4260,17 +4381,19 @@
         <v>169</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>548</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="K39" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L39" s="5" t="s">
-        <v>597</v>
+        <v>721</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4279,7 +4402,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -4305,13 +4428,17 @@
         <v>173</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L40" s="5" t="s">
         <v>546</v>
       </c>
@@ -4346,13 +4473,17 @@
         <v>177</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L41" s="5" t="s">
         <v>546</v>
       </c>
@@ -4387,13 +4518,17 @@
         <v>181</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L42" s="5" t="s">
         <v>546</v>
       </c>
@@ -4428,13 +4563,17 @@
         <v>185</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L43" s="5" t="s">
         <v>546</v>
       </c>
@@ -4445,7 +4584,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
@@ -4471,13 +4610,17 @@
         <v>189</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L44" s="5" t="s">
         <v>546</v>
       </c>
@@ -4488,7 +4631,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
@@ -4514,13 +4657,17 @@
         <v>193</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L45" s="5" t="s">
         <v>546</v>
       </c>
@@ -4555,13 +4702,17 @@
         <v>197</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4570,7 +4721,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
@@ -4596,13 +4747,17 @@
         <v>201</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L47" s="5" t="s">
         <v>546</v>
       </c>
@@ -4637,7 +4792,7 @@
         <v>205</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>538</v>
@@ -4645,7 +4800,9 @@
       <c r="J48" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L48" s="5" t="s">
         <v>542</v>
       </c>
@@ -4680,13 +4837,17 @@
         <v>209</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="5"/>
+        <v>578</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L49" s="5" t="s">
         <v>546</v>
       </c>
@@ -4697,7 +4858,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
@@ -4723,13 +4884,17 @@
         <v>213</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L50" s="5" t="s">
         <v>546</v>
       </c>
@@ -4764,13 +4929,17 @@
         <v>217</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L51" s="5" t="s">
         <v>546</v>
       </c>
@@ -4805,7 +4974,7 @@
         <v>221</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>538</v>
@@ -4813,7 +4982,9 @@
       <c r="J52" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L52" s="5" t="s">
         <v>542</v>
       </c>
@@ -4824,7 +4995,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
@@ -4850,13 +5021,17 @@
         <v>225</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L53" s="5" t="s">
         <v>546</v>
       </c>
@@ -4891,17 +5066,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K54" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L54" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -4934,7 +5111,7 @@
         <v>233</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>538</v>
@@ -4942,7 +5119,9 @@
       <c r="J55" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L55" s="5" t="s">
         <v>542</v>
       </c>
@@ -4953,7 +5132,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
@@ -4979,13 +5158,17 @@
         <v>237</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L56" s="5" t="s">
         <v>546</v>
       </c>
@@ -4996,7 +5179,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -5022,17 +5205,19 @@
         <v>241</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>548</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="K57" s="5"/>
+        <v>720</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>722</v>
+      </c>
       <c r="L57" s="5" t="s">
-        <v>550</v>
+        <v>719</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5041,7 +5226,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
@@ -5067,7 +5252,7 @@
         <v>245</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>538</v>
@@ -5075,7 +5260,9 @@
       <c r="J58" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L58" s="5" t="s">
         <v>542</v>
       </c>
@@ -5086,7 +5273,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
@@ -5112,13 +5299,17 @@
         <v>249</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L59" s="5" t="s">
         <v>546</v>
       </c>
@@ -5153,13 +5344,17 @@
         <v>253</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L60" s="5" t="s">
         <v>546</v>
       </c>
@@ -5170,7 +5365,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
@@ -5196,17 +5391,19 @@
         <v>257</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="K61" s="5"/>
+        <v>723</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L61" s="5" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -5215,7 +5412,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="5" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
@@ -5241,17 +5438,19 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>548</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="K62" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L62" s="5" t="s">
-        <v>597</v>
+        <v>721</v>
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="5"/>
@@ -5284,17 +5483,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K63" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L63" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5303,7 +5504,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
@@ -5329,13 +5530,17 @@
         <v>269</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L64" s="5" t="s">
         <v>546</v>
       </c>
@@ -5370,17 +5575,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="K65" s="5"/>
+        <v>564</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L65" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -5389,7 +5596,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="5" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
@@ -5415,17 +5622,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="K66" s="5"/>
+        <v>564</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L66" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="5"/>
@@ -5434,7 +5643,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="12" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
@@ -5460,13 +5669,17 @@
         <v>281</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L67" s="5" t="s">
         <v>546</v>
       </c>
@@ -5501,13 +5714,17 @@
         <v>285</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
       <c r="N68" s="5"/>
@@ -5516,7 +5733,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
@@ -5542,13 +5759,17 @@
         <v>289</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L69" s="5" t="s">
         <v>546</v>
       </c>
@@ -5583,13 +5804,17 @@
         <v>293</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L70" s="5" t="s">
         <v>546</v>
       </c>
@@ -5624,13 +5849,17 @@
         <v>297</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L71" s="5" t="s">
         <v>546</v>
       </c>
@@ -5665,13 +5894,17 @@
         <v>301</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L72" s="5" t="s">
         <v>546</v>
       </c>
@@ -5706,13 +5939,17 @@
         <v>305</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L73" s="5" t="s">
         <v>546</v>
       </c>
@@ -5747,17 +5984,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K74" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L74" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5766,7 +6005,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="5" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
@@ -5792,17 +6031,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="K75" s="5"/>
+        <v>564</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L75" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -5835,13 +6076,17 @@
         <v>317</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L76" s="5" t="s">
         <v>546</v>
       </c>
@@ -5876,13 +6121,17 @@
         <v>321</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L77" s="5" t="s">
         <v>546</v>
       </c>
@@ -5917,7 +6166,7 @@
         <v>325</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>538</v>
@@ -5925,9 +6174,11 @@
       <c r="J78" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L78" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -5936,7 +6187,7 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="5" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
@@ -5962,13 +6213,17 @@
         <v>329</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L79" s="5" t="s">
         <v>546</v>
       </c>
@@ -6003,13 +6258,17 @@
         <v>333</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L80" s="5" t="s">
         <v>546</v>
       </c>
@@ -6020,7 +6279,7 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="5" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
@@ -6046,7 +6305,7 @@
         <v>337</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>538</v>
@@ -6054,7 +6313,9 @@
       <c r="J81" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L81" s="5" t="s">
         <v>542</v>
       </c>
@@ -6089,17 +6350,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K82" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L82" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6132,7 +6395,7 @@
         <v>345</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>538</v>
@@ -6140,9 +6403,11 @@
       <c r="J83" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="K83" s="5"/>
+      <c r="K83" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L83" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -6175,17 +6440,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>538</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="K84" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L84" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M84" s="6"/>
       <c r="N84" s="5"/>
@@ -6194,7 +6461,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="6" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
@@ -6220,7 +6487,7 @@
         <v>353</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>538</v>
@@ -6228,7 +6495,9 @@
       <c r="J85" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K85" s="5"/>
+      <c r="K85" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L85" s="5" t="s">
         <v>542</v>
       </c>
@@ -6263,13 +6532,17 @@
         <v>357</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L86" s="5" t="s">
         <v>546</v>
       </c>
@@ -6280,7 +6553,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="5" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
@@ -6306,13 +6579,17 @@
         <v>361</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L87" s="5" t="s">
         <v>546</v>
       </c>
@@ -6347,13 +6624,17 @@
         <v>365</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L88" s="5" t="s">
         <v>546</v>
       </c>
@@ -6388,13 +6669,17 @@
         <v>369</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="J89" s="6"/>
-      <c r="K89" s="5"/>
+        <v>664</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L89" s="5" t="s">
         <v>546</v>
       </c>
@@ -6429,13 +6714,17 @@
         <v>373</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L90" s="5"/>
       <c r="M90" s="6"/>
       <c r="N90" s="5"/>
@@ -6444,7 +6733,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="6" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
@@ -6470,17 +6759,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="K91" s="5"/>
+        <v>564</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L91" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M91" s="10"/>
       <c r="N91" s="5"/>
@@ -6513,13 +6804,17 @@
         <v>381</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L92" s="5" t="s">
         <v>546</v>
       </c>
@@ -6554,13 +6849,17 @@
         <v>385</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="5"/>
+        <v>667</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L93" s="5" t="s">
         <v>546</v>
       </c>
@@ -6571,7 +6870,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
@@ -6597,13 +6896,17 @@
         <v>389</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L94" s="5" t="s">
         <v>546</v>
       </c>
@@ -6638,7 +6941,7 @@
         <v>393</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>538</v>
@@ -6646,7 +6949,9 @@
       <c r="J95" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K95" s="5"/>
+      <c r="K95" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L95" s="5" t="s">
         <v>542</v>
       </c>
@@ -6657,7 +6962,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
@@ -6683,17 +6988,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K96" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L96" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6726,13 +7033,17 @@
         <v>401</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L97" s="5" t="s">
         <v>546</v>
       </c>
@@ -6767,13 +7078,17 @@
         <v>405</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L98" s="5" t="s">
         <v>546</v>
       </c>
@@ -6808,7 +7123,7 @@
         <v>409</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>538</v>
@@ -6816,7 +7131,9 @@
       <c r="J99" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K99" s="5"/>
+      <c r="K99" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L99" s="5" t="s">
         <v>542</v>
       </c>
@@ -6851,7 +7168,7 @@
         <v>413</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>538</v>
@@ -6859,7 +7176,9 @@
       <c r="J100" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K100" s="5"/>
+      <c r="K100" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L100" s="5" t="s">
         <v>542</v>
       </c>
@@ -6894,17 +7213,19 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="K101" s="5"/>
+        <v>720</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L101" s="5" t="s">
-        <v>683</v>
+        <v>724</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -6913,7 +7234,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="5" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
@@ -6939,13 +7260,17 @@
         <v>421</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L102" s="5" t="s">
         <v>546</v>
       </c>
@@ -6980,13 +7305,17 @@
         <v>425</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L103" s="5" t="s">
         <v>546</v>
       </c>
@@ -7021,13 +7350,17 @@
         <v>428</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L104" s="5" t="s">
         <v>546</v>
       </c>
@@ -7062,17 +7395,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K105" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L105" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M105" s="8"/>
       <c r="N105" s="5"/>
@@ -7081,7 +7416,7 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="8" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
@@ -7107,13 +7442,17 @@
         <v>436</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L106" s="5" t="s">
         <v>546</v>
       </c>
@@ -7148,13 +7487,17 @@
         <v>439</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L107" s="5" t="s">
         <v>546</v>
       </c>
@@ -7189,13 +7532,17 @@
         <v>443</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L108" s="5" t="s">
         <v>546</v>
       </c>
@@ -7230,13 +7577,17 @@
         <v>447</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L109" s="5" t="s">
         <v>546</v>
       </c>
@@ -7271,7 +7622,7 @@
         <v>451</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>538</v>
@@ -7279,7 +7630,9 @@
       <c r="J110" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K110" s="5"/>
+      <c r="K110" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L110" s="5" t="s">
         <v>542</v>
       </c>
@@ -7290,7 +7643,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="5" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
@@ -7316,13 +7669,17 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7331,7 +7688,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="5" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
@@ -7357,7 +7714,7 @@
         <v>459</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>538</v>
@@ -7365,7 +7722,9 @@
       <c r="J112" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K112" s="5"/>
+      <c r="K112" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L112" s="5" t="s">
         <v>542</v>
       </c>
@@ -7376,7 +7735,7 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="5" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
@@ -7402,17 +7761,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>538</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="K113" s="5"/>
+        <v>564</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L113" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
@@ -7445,13 +7806,17 @@
         <v>467</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L114" s="5" t="s">
         <v>546</v>
       </c>
@@ -7486,13 +7851,17 @@
         <v>471</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L115" s="5" t="s">
         <v>546</v>
       </c>
@@ -7527,13 +7896,17 @@
         <v>475</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L116" s="5" t="s">
         <v>546</v>
       </c>
@@ -7568,17 +7941,19 @@
         <v>479</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>538</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="K117" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L117" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
@@ -7587,7 +7962,7 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="6" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
@@ -7613,17 +7988,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K118" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L118" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -7632,7 +8009,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="5" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
@@ -7658,13 +8035,17 @@
         <v>487</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L119" s="5" t="s">
         <v>546</v>
       </c>
@@ -7675,7 +8056,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="5" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
@@ -7701,13 +8082,17 @@
         <v>490</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L120" s="5" t="s">
         <v>546</v>
       </c>
@@ -7742,13 +8127,17 @@
         <v>494</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -7757,7 +8146,7 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="5" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
@@ -7783,13 +8172,17 @@
         <v>498</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L122" s="5" t="s">
         <v>546</v>
       </c>
@@ -7800,7 +8193,7 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="5" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
@@ -7826,17 +8219,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K123" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L123" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -7845,7 +8240,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
@@ -7871,17 +8266,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K124" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L124" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -7914,13 +8311,17 @@
         <v>510</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -7929,7 +8330,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="5" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
@@ -7955,7 +8356,7 @@
         <v>514</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>538</v>
@@ -7963,7 +8364,9 @@
       <c r="J126" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K126" s="5"/>
+      <c r="K126" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L126" s="5" t="s">
         <v>542</v>
       </c>
@@ -7974,7 +8377,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="5" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
@@ -8000,13 +8403,17 @@
         <v>518</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="L127" s="5" t="s">
         <v>546</v>
       </c>
@@ -8017,7 +8424,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="5" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
@@ -8043,13 +8450,17 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8058,7 +8469,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
@@ -8084,17 +8495,19 @@
         <v>526</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="K129" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L129" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8103,7 +8516,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
@@ -8129,13 +8542,17 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>556</v>
+      </c>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8144,7 +8561,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="5" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
@@ -8170,7 +8587,7 @@
         <v>534</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>538</v>
@@ -8178,7 +8595,9 @@
       <c r="J131" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K131" s="5"/>
+      <c r="K131" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L131" s="5" t="s">
         <v>542</v>
       </c>
@@ -8189,7 +8608,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="5" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
